--- a/Milestone 1/State Transition Table.xlsx
+++ b/Milestone 1/State Transition Table.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Documents\Junior Spring Semester\Pablo\Milestone 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Documents\GitHub\FormalLanguages\Milestone 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="table" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="55">
   <si>
     <t>q0</t>
   </si>
@@ -134,9 +134,6 @@
     <t>q35</t>
   </si>
   <si>
-    <t>q36</t>
-  </si>
-  <si>
     <t>q37</t>
   </si>
   <si>
@@ -188,16 +185,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>q1,q6</t>
-  </si>
-  <si>
-    <t>q6,q17</t>
-  </si>
-  <si>
     <t>=</t>
-  </si>
-  <si>
-    <t>q9,q16</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -579,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +598,7 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -699,798 +687,798 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -1499,373 +1487,373 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="M12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>0</v>
@@ -1880,61 +1868,61 @@
         <v>0</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="AE12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AH12" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="AI12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>0</v>
@@ -1942,793 +1930,793 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AK16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
@@ -2739,7 +2727,7 @@
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="L29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
